--- a/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
+++ b/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\Dropbox (Energy InNovation)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/eodfip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9838DB3E-7439-47D3-9F3C-3145A30A468E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EEEF0-991B-D44A-8714-8880ED39B632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="915" windowWidth="24090" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="23800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>Resources for the Future</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Government excluding electricity</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -246,24 +243,6 @@
     <t>https://media.rff.org/documents/RFF-DP-08-37.pdf</t>
   </si>
   <si>
-    <t>Natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>Iron and steel</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Other industries</t>
-  </si>
-  <si>
-    <t>Cement and other carbonates</t>
-  </si>
-  <si>
-    <t>Water + waste</t>
-  </si>
-  <si>
     <t>Unit: dimensionless (elasticity)</t>
   </si>
   <si>
@@ -313,6 +292,81 @@
   </si>
   <si>
     <t>for these particular data.</t>
+  </si>
+  <si>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
   </si>
 </sst>
 </file>
@@ -426,7 +480,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -457,6 +511,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,87 +855,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C1" s="19">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -897,31 +956,31 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="1" width="49.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="12.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -929,10 +988,10 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -940,10 +999,10 @@
         <v>-0.81200000000000006</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -951,10 +1010,10 @@
         <v>-0.29599999999999999</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -962,10 +1021,10 @@
         <v>-0.29599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -973,10 +1032,10 @@
         <v>-0.106</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -984,10 +1043,10 @@
         <v>-0.63300000000000001</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1054,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1003,10 +1062,10 @@
         <v>-0.56599999999999995</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1014,10 +1073,10 @@
         <v>-0.77400000000000002</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1025,10 +1084,10 @@
         <v>-0.63800000000000001</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1036,10 +1095,10 @@
         <v>-1.139</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1047,10 +1106,10 @@
         <v>-2.4180000000000001</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1058,10 +1117,10 @@
         <v>-0.69799999999999995</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1069,10 +1128,10 @@
         <v>-0.69799999999999995</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1080,10 +1139,10 @@
         <v>-0.69799999999999995</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1091,10 +1150,10 @@
         <v>-0.69799999999999995</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1102,10 +1161,10 @@
         <v>-0.69799999999999995</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1113,10 +1172,10 @@
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1124,10 +1183,10 @@
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -1135,10 +1194,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1146,10 +1205,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1157,10 +1216,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1168,10 +1227,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1179,10 +1238,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1190,10 +1249,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -1201,10 +1260,10 @@
         <v>-0.98699999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -1212,10 +1271,10 @@
         <v>-0.82699999999999996</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1223,10 +1282,10 @@
         <v>-0.82699999999999996</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -1234,10 +1293,10 @@
         <v>-0.82699999999999996</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -1245,10 +1304,10 @@
         <v>-0.82699999999999996</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -1256,10 +1315,10 @@
         <v>-0.82699999999999996</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -1267,10 +1326,10 @@
         <v>-0.95299999999999996</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -1278,10 +1337,10 @@
         <v>-0.95299999999999996</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -1289,10 +1348,10 @@
         <v>-0.95299999999999996</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1300,10 +1359,10 @@
         <v>-0.95299999999999996</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1311,10 +1370,10 @@
         <v>-0.95299999999999996</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1322,10 +1381,10 @@
         <v>-0.505</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1333,10 +1392,10 @@
         <v>-1.6619999999999999</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1344,10 +1403,10 @@
         <v>-2.5960000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -1355,10 +1414,10 @@
         <v>-2.4849999999999999</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -1366,10 +1425,10 @@
         <v>-2.4849999999999999</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1377,10 +1436,10 @@
         <v>-1.6619999999999999</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1388,7 +1447,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1455,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1404,7 +1463,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -1412,7 +1471,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1479,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1428,7 +1487,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1495,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1444,7 +1503,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1511,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1472,32 +1531,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
-    <col min="2" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.5" customWidth="1"/>
+    <col min="2" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +1570,7 @@
         <v>168532</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1584,7 @@
         <v>48460</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1598,7 @@
         <v>126146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1612,7 @@
         <v>52569</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1626,7 @@
         <v>18881</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1640,7 @@
         <v>56813</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1654,7 @@
         <v>250852</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1668,7 @@
         <v>92926</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1682,7 @@
         <v>1031627</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1637,7 +1696,7 @@
         <v>486680</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1710,7 @@
         <v>62447</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1724,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1738,7 @@
         <v>164005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1752,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1766,7 @@
         <v>52514</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1721,7 +1780,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1794,7 @@
         <v>145197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1808,7 @@
         <v>15558</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1763,9 +1822,9 @@
         <v>191641</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B22" s="15">
         <v>14743</v>
@@ -1777,7 +1836,7 @@
         <v>18270</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1850,7 @@
         <v>17745</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1864,7 @@
         <v>47725</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1878,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1833,7 +1892,7 @@
         <v>12508</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1906,7 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1861,9 +1920,9 @@
         <v>448400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B29" s="15">
         <v>4367</v>
@@ -1875,7 +1934,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1948,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1962,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1976,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1931,7 +1990,7 @@
         <v>74686</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1945,7 +2004,7 @@
         <v>62903</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +2018,7 @@
         <v>22262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +2032,7 @@
         <v>14545</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1987,7 +2046,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2001,7 +2060,7 @@
         <v>29823</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2074,7 @@
         <v>225327</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2029,7 +2088,7 @@
         <v>228125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2102,7 @@
         <v>466241</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2116,7 @@
         <v>450146</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2071,7 +2130,7 @@
         <v>105557</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2085,7 +2144,7 @@
         <v>158471</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2158,7 @@
         <v>1645222</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2113,9 +2172,9 @@
         <v>102147</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B47" s="15">
         <v>194732</v>
@@ -2127,7 +2186,7 @@
         <v>187881</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2141,7 +2200,7 @@
         <v>297242</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2155,7 +2214,7 @@
         <v>625365</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2228,7 @@
         <v>1074983</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2183,7 +2242,7 @@
         <v>1953017</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2256,7 @@
         <v>1927957</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2211,7 +2270,7 @@
         <v>2729030</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2236,94 +2295,247 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B2" s="11" cm="1">
         <f t="array" ref="B2">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A2),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A2),0)</f>
-        <v>-0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B3" s="11" cm="1">
         <f t="array" ref="B3">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A3),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A3),0)</f>
-        <v>-0.26923600535787917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B4" s="11" cm="1">
         <f t="array" ref="B4">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A4),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A4),0)</f>
-        <v>-0.95299999999999985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B5" s="11" cm="1">
         <f t="array" ref="B5">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A5),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A5),0)</f>
-        <v>-0.98568388783511685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B6" s="11" cm="1">
         <f t="array" ref="B6">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A6),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A6),0)</f>
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B7" s="11" cm="1">
         <f t="array" ref="B7">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A7),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A7),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.6823913135674904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B8" s="11" cm="1">
         <f t="array" ref="B8">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A8),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A8),0)</f>
-        <v>-0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B9" s="11" cm="1">
         <f t="array" ref="B9">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A9),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A9),0)</f>
-        <v>-1.2596118059082353</v>
+        <v>-0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="11" cm="1">
+        <f t="array" ref="B10">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A10),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A10),0)</f>
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="11" cm="1">
+        <f t="array" ref="B11">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A11),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A11),0)</f>
+        <v>-0.98699999999999988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="11" cm="1">
+        <f t="array" ref="B12">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A12),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A12),0)</f>
+        <v>-0.98528503405534762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="18">
+        <f>B14</f>
+        <v>-0.82699999999999985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="11" cm="1">
+        <f t="array" ref="B14">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A14),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A14),0)</f>
+        <v>-0.82699999999999985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="11" cm="1">
+        <f t="array" ref="B15">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A15),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A15),0)</f>
+        <v>-0.95299999999999985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="11" cm="1">
+        <f t="array" ref="B16">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A16),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A16),0)</f>
+        <v>-0.95300000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="11" cm="1">
+        <f t="array" ref="B17">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A17),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A17),0)</f>
+        <v>-0.505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="11" cm="1">
+        <f t="array" ref="B18">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A18),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A18),0)</f>
+        <v>-2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="18">
+        <f>B18</f>
+        <v>-2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="11" cm="1">
+        <f t="array" ref="B20">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A20),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A20),0)</f>
+        <v>-1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="11" cm="1">
+        <f t="array" ref="B21">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A21),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A21),0)</f>
+        <v>-2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="11" cm="1">
+        <f t="array" ref="B22">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A22),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A22),0)</f>
+        <v>-2.4849999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="11" cm="1">
+        <f t="array" ref="B23">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A23),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A23),0)</f>
+        <v>-1.6619999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="11" cm="1">
+        <f t="array" ref="B24">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A24),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A24),0)</f>
+        <v>-0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="11" cm="1">
+        <f t="array" ref="B25">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A25),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A25),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="11" cm="1">
+        <f t="array" ref="B26">IFERROR(SUMPRODUCT(--('Table B6'!$C$3:$C$54=$A26),'Table B6'!$B$3:$B$54,'Table A1'!$B$3:$B$54)/SUMIFS('Table A1'!$B$3:$B$54,'Table B6'!$C$3:$C$54,$A26),0)</f>
+        <v>-0.77400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
+++ b/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/eodfip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/eodfip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EEEF0-991B-D44A-8714-8880ED39B632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD60AF-7BE3-D247-8E83-B853DC1B4799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="460" windowWidth="23800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
